--- a/artfynd/A 45407-2025 artfynd.xlsx
+++ b/artfynd/A 45407-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,129 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131139952</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57830</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100067</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Havsörn</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Haliaeetus albicilla</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Vidön, Dingelsundet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>411545</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6578814</v>
+      </c>
+      <c r="S3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Hammarö</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Hammarö</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Peter Adén</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Peter Adén</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
